--- a/pred_ohlcv/54_21/2019-10-30 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 TRV ohlcv.xlsx
@@ -1354,7 +1354,7 @@
         <v>-6502780.937400048</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-7564793.287095902</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-7116553.922139633</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-7113890.318790592</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-7113890.318790592</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-7113890.318790592</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-5828112.606748147</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>65139429.70966502</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>65007953.10276502</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>65063116.96706502</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>65144290.94326502</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>66190393.00317512</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>66190393.00317512</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>66117389.30497511</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>65977908.20477431</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>65902643.70497431</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>65994434.09537431</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>65994434.09537431</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>66022425.1389856</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>65896335.2926856</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>65744455.73791904</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>65529270.12870797</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>65327138.52181204</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>65276467.12171204</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>65355031.24021204</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>65238891.81211204</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>65055615.69898184</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>65034032.14468185</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>64946668.96818185</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>64944879.42768185</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>64946430.04002675</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>64946366.62112675</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>64977945.67034627</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>64977895.67034627</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>64977895.67034627</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>64961003.58604628</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>64961003.58604628</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>65003362.96244628</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>65048455.81834628</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>65124600.49424627</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>65124600.49424627</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>65237452.40174627</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>65404319.34709283</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>65386628.70929283</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>65341337.38999283</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>65213886.81339283</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>65336132.67319283</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>65272392.60479283</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>65272392.60479283</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>65187796.45569283</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>65133664.85709283</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>65195712.92089283</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>65202926.80559283</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>65238923.34139283</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>65208640.53979283</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>65242872.97289283</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>65242872.97289283</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>65166531.88099283</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>65034220.85809283</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>65117149.96704262</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>64989131.29112556</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>65120345.34452556</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>65114313.39542556</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>65114303.39542556</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>65108584.18392556</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>168765426.093575</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>174674629.857824</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>174675375.8814924</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>174675425.7591924</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>174675338.9361924</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>174675338.9361924</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>174675338.9361924</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>174675321.6489924</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>174635321.6489924</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>174681145.2821924</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>174669284.2555924</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>174689592.9043924</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>174683523.7611924</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>174683523.7611924</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>174690844.9100924</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>174688862.2187923</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>174688862.2187923</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>174688862.2187923</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>174689144.6903923</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>174689144.6903923</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>174689144.6903923</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>174689144.6903923</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>174689144.6903923</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>174689144.6903923</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>174689144.6903923</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>174688141.1543472</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>174688141.1543472</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>174685032.8919472</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>174685042.8919472</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>174663572.6098472</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>174664639.6098472</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>174664639.6098472</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>174664639.6098472</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>174664174.6288472</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>174660196.6288472</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>174660345.8840472</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>174660345.8840472</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>174660345.8840472</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>174684465.9156472</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>174684465.9156472</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>174684027.3335472</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>174695959.4750472</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>174695959.4750472</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>174695959.4750472</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>174695959.4750472</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>174709439.5676472</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>174709461.4639472</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>174709161.4639472</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>174709161.4639472</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>174714766.13788</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>174714766.13788</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>174714766.13788</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>174706081.73638</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>174706081.73638</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>174705203.23638</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>174719378.3835472</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>174730008.5588472</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>174730008.5588472</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>174730008.5588472</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>174730008.5588472</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>174732631.0644472</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>174733802.8365472</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>174804647.1381472</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>174803629.6395472</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>174803929.6395472</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>174803909.6395472</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>174826739.1989413</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>174811071.9020413</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>174814548.0146413</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>174814518.0146413</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>174855444.7359413</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>174854092.4126413</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>174853503.6652413</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>174853503.6652413</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>174853503.6652413</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>174864568.1362073</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>174864548.1362073</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>174864548.1362073</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>174858282.0502073</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>174858292.0502073</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>174858292.0502073</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>174834495.3228073</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>174831842.9996074</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>174831925.0763074</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>174831925.0763074</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>174831925.0763074</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>174831925.0763074</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>174818573.6205074</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>174818573.6205074</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>174816897.8728074</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>174816897.8728074</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>174802640.6826074</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>174752956.7070073</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>174741141.7918074</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>174741141.7918074</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>174742078.9289074</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>174742078.9289074</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>174743656.7059074</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>174743656.7059074</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>174743656.7059074</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>174743656.7059074</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>174743656.7059074</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>174743656.7059074</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>174744267.0117074</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>174735278.5847074</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>174735278.5847074</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>174734598.4249074</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>174666967.4312074</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>174644443.0271074</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>174644443.0271074</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>174644443.0271074</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>174644443.0271074</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>174523084.5761074</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>174523279.7626074</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>174523279.7626074</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>174538813.5696074</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>174541583.5594074</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>174543078.8305074</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>174548127.2820074</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>174548127.2820074</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>174560663.2008074</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>174597761.7787074</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>174602126.4371453</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>174575027.8955453</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>174575027.8955453</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>174575027.8955453</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-30 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 TRV ohlcv.xlsx
@@ -1354,7 +1354,7 @@
         <v>-6502780.937400048</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-7977167.642200047</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-8055132.06295719</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-7991582.697484654</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-7564793.287095902</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-7616143.480695902</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-7669400.092795902</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-7823184.531309136</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-7871743.583509136</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-7116553.922139633</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-7113890.318790592</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-7113890.318790592</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-7113890.318790592</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-7017341.314839632</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-6936147.293837716</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-6873444.817577309</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-6907293.580643506</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-6891435.830009703</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-6918699.2245759</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-5866918.014515337</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-5866918.014515337</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>65139429.70966502</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>65007953.10276502</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>65063116.96706502</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>65144290.94326502</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>66190393.00317512</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>66190393.00317512</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>66117389.30497511</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>65977908.20477431</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>65902643.70497431</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>65994434.09537431</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>65994434.09537431</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>66022425.1389856</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>65896335.2926856</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>65744455.73791904</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>65529270.12870797</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>65327138.52181204</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>65276467.12171204</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>65355031.24021204</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>65238891.81211204</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>64976235.88946924</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>65035443.76696923</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>65055615.69898184</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>65097978.55568185</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>65091413.38138185</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>65034032.14468185</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>64946668.96818185</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>64944879.42768185</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>64946430.04002675</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>64946366.62112675</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>64977945.67034627</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>64977895.67034627</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>64977895.67034627</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>64961003.58604628</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>64961003.58604628</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>65003362.96244628</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>65048455.81834628</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>65124600.49424627</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>65124600.49424627</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>65237452.40174627</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>65404319.34709283</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>65386628.70929283</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>65341337.38999283</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>65213886.81339283</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>65336132.67319283</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>65272392.60479283</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>65272392.60479283</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>65187796.45569283</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>65133664.85709283</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>65195712.92089283</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>65202926.80559283</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>65238923.34139283</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>65208640.53979283</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>65242872.97289283</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>65242872.97289283</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>65166531.88099283</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>65034220.85809283</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>65034726.77734915</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>65034051.95623799</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>65014944.65864574</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>65035488.71444574</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>65035488.71444574</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>65035488.71444574</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>64968802.81972526</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>64952745.54342526</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>64955598.26982526</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>64925171.98042527</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>64925171.98042527</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>64975204.89502527</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>65122797.32680479</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>65129940.92594262</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>65129940.92594262</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>65117149.96704262</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>65159472.46466635</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>65018805.09466635</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>65012733.30346636</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>65023062.01536636</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>65022324.81616636</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>65007240.12046637</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>64965500.46176637</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>64965500.46176637</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>65057917.99266637</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>65017285.87502556</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>65008822.46382556</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>64989131.29112556</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>65012883.88062556</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>65033131.43252556</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>65033131.43252556</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>65032955.43252556</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>65032955.43252556</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>65042283.07302556</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>65042273.07302556</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>65075388.43332556</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>65104314.02852556</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>65120345.34452556</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>65114313.39542556</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>65114303.39542556</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>65108584.18392556</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>65108584.18392556</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>65075653.38762556</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>65127818.19842556</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>65145543.88372556</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>64983341.46762556</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>64934306.87402556</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>65058558.97152556</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>65068488.97152556</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>65039997.56642555</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>64865427.81382556</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>64817657.36172555</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>64866400.86082555</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>64929589.17572556</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>64977827.43582556</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>64906855.43582556</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>64906855.43582556</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>64906855.43582556</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>64808987.05032556</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>64682250.97812556</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>168765426.093575</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>185791533.324275</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>185791533.324275</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
